--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -840,7 +840,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -395,7 +395,10 @@
     <t>customerTable</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +457,145 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -511,7 +652,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -522,6 +663,29 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -840,7 +1004,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -875,7 +1039,9 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="28">
+        <v>123</v>
+      </c>
     </row>
     <row ht="18.75" r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -887,7 +1053,9 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="29">
+        <v>124</v>
+      </c>
     </row>
     <row ht="18.75" r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -899,7 +1067,9 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="30">
+        <v>124</v>
+      </c>
     </row>
     <row ht="18.75" r="5" spans="1:4">
       <c r="A5" s="2" t="s">
@@ -911,7 +1081,9 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="31">
+        <v>124</v>
+      </c>
     </row>
     <row ht="18.75" r="6" spans="1:4">
       <c r="A6" s="2" t="s">
@@ -923,7 +1095,9 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="32">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1005,7 +1179,9 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" t="s" s="11">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1023,7 +1199,9 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s" s="13">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1041,7 +1219,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" t="s" s="15">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1059,7 +1239,9 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s" s="17">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -1077,7 +1259,9 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" t="s" s="19">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="4" t="s">
@@ -1095,7 +1279,9 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" t="s" s="21">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -1113,7 +1299,9 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" t="s" s="23">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -1131,7 +1319,9 @@
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" t="s" s="25">
+        <v>123</v>
+      </c>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1149,7 +1339,9 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" t="s" s="27">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2095,7 +2287,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -395,10 +395,10 @@
     <t>customerTable</t>
   </si>
   <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,126 +457,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
       <b val="true"/>
     </font>
@@ -584,6 +464,342 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -652,7 +868,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -686,6 +902,42 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1004,7 +1256,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,9 +1289,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="9">
         <v>123</v>
       </c>
     </row>
@@ -1053,8 +1305,8 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="29">
-        <v>124</v>
+      <c r="D3" t="s" s="10">
+        <v>123</v>
       </c>
     </row>
     <row ht="18.75" r="4" spans="1:4">
@@ -1065,9 +1317,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="30">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="66">
         <v>124</v>
       </c>
     </row>
@@ -1081,8 +1333,8 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="31">
-        <v>124</v>
+      <c r="D5" t="s" s="67">
+        <v>123</v>
       </c>
     </row>
     <row ht="18.75" r="6" spans="1:4">
@@ -1095,8 +1347,8 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="32">
-        <v>124</v>
+      <c r="D6" t="s" s="68">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1159,9 +1411,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="9">
-        <v>123</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="4" t="s">
@@ -1179,9 +1429,7 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="11">
-        <v>123</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1199,9 +1447,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="13">
-        <v>123</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1219,9 +1465,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="15">
-        <v>123</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1239,9 +1483,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="17">
-        <v>123</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -1259,9 +1501,7 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="19">
-        <v>123</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="4" t="s">
@@ -1279,9 +1519,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="21">
-        <v>123</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -1299,9 +1537,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s" s="23">
-        <v>123</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -1319,9 +1555,7 @@
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s" s="25">
-        <v>123</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1339,9 +1573,7 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s" s="27">
-        <v>123</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1786,7 +2018,9 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" t="s" s="11">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="4" t="s">
@@ -1804,7 +2038,9 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" t="s" s="13">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1822,7 +2058,9 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s" s="15">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1840,7 +2078,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" t="s" s="17">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1858,7 +2098,9 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s" s="19">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -1876,7 +2118,9 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" t="s" s="21">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="4" t="s">
@@ -1894,7 +2138,9 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" t="s" s="23">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -1912,7 +2158,9 @@
       <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" t="s" s="25">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -1930,7 +2178,9 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" t="s" s="27">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1948,7 +2198,9 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" t="s" s="29">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="4" t="s">
@@ -1966,7 +2218,9 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" t="s" s="31">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="4" t="s">
@@ -1984,7 +2238,9 @@
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" t="s" s="33">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="4" t="s">
@@ -2002,7 +2258,9 @@
       <c r="E14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" t="s" s="35">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -2020,7 +2278,9 @@
       <c r="E15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" t="s" s="37">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -2038,7 +2298,9 @@
       <c r="E16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" t="s" s="39">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="17" spans="1:6">
       <c r="A17" s="4" t="s">
@@ -2056,7 +2318,9 @@
       <c r="E17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" t="s" s="41">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -2074,7 +2338,9 @@
       <c r="E18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" t="s" s="43">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="19" spans="1:6">
       <c r="A19" s="4" t="s">
@@ -2092,7 +2358,9 @@
       <c r="E19" s="4">
         <v>9876543212</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" t="s" s="45">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="20" spans="1:6">
       <c r="A20" s="4" t="s">
@@ -2110,7 +2378,9 @@
       <c r="E20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" t="s" s="47">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="21" spans="1:6">
       <c r="A21" s="4" t="s">
@@ -2128,7 +2398,9 @@
       <c r="E21" s="4">
         <v>9876543212</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" t="s" s="49">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="22" spans="1:6">
       <c r="A22" s="4" t="s">
@@ -2146,7 +2418,9 @@
       <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" t="s" s="51">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="23" spans="1:6">
       <c r="A23" s="4" t="s">
@@ -2164,7 +2438,9 @@
       <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" t="s" s="53">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -2182,7 +2458,9 @@
       <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" t="s" s="55">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="25" spans="1:6">
       <c r="A25" s="4" t="s">
@@ -2200,7 +2478,9 @@
       <c r="E25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" t="s" s="57">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="26" spans="1:6">
       <c r="A26" s="4" t="s">
@@ -2218,7 +2498,9 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" t="s" s="59">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="27" spans="1:6">
       <c r="A27" s="4" t="s">
@@ -2236,7 +2518,9 @@
       <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" t="s" s="61">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="28" spans="1:6">
       <c r="A28" s="4" t="s">
@@ -2254,7 +2538,9 @@
       <c r="E28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" t="s" s="63">
+        <v>124</v>
+      </c>
     </row>
     <row ht="15.75" r="29" spans="1:6">
       <c r="A29" s="4" t="s">
@@ -2272,7 +2558,9 @@
       <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" t="s" s="65">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2286,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
